--- a/src/Excel/Read.xlsx
+++ b/src/Excel/Read.xlsx
@@ -19,27 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>TÊN</t>
-  </si>
-  <si>
-    <t>TRUNG</t>
-  </si>
-  <si>
-    <t>THUẬN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KHẢI </t>
-  </si>
-  <si>
-    <t>ĐĂNG</t>
-  </si>
-  <si>
-    <t>SÚC VẬT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Mã nhà xuất bản</t>
+  </si>
+  <si>
+    <t>mã tác giả</t>
+  </si>
+  <si>
+    <t>mã thể loại</t>
+  </si>
+  <si>
+    <t>số lượng tồn</t>
+  </si>
+  <si>
+    <t>năm xuất bản</t>
+  </si>
+  <si>
+    <t>đơn giá</t>
+  </si>
+  <si>
+    <t>TestExcel1</t>
+  </si>
+  <si>
+    <t>TestExcel2</t>
+  </si>
+  <si>
+    <t>TestExcel3</t>
   </si>
 </sst>
 </file>
@@ -357,60 +366,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>2012</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>2012</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>2012</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/Read.xlsx
+++ b/src/Excel/Read.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC45E3C-C6BB-46CE-BFEA-757B7EA08F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,24 +366,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -425,10 +426,10 @@
         <v>2012</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -448,10 +449,10 @@
         <v>2012</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
